--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value116.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value116.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.039478839653253</v>
+        <v>0.4921406805515289</v>
       </c>
       <c r="B1">
-        <v>1.829849913659295</v>
+        <v>0.8842782378196716</v>
       </c>
       <c r="C1">
-        <v>4.409138517694601</v>
+        <v>5.871946811676025</v>
       </c>
       <c r="D1">
-        <v>2.471087574960703</v>
+        <v>1.583678722381592</v>
       </c>
       <c r="E1">
-        <v>0.9828535659890196</v>
+        <v>1.17596447467804</v>
       </c>
     </row>
   </sheetData>
